--- a/Scenarios.xlsx
+++ b/Scenarios.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,27 +8,122 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Facebook Mobile App Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{687C180A-CC11-4F4B-9063-10ECD87C1A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CEEAC9-F3D5-4F30-97E1-5A58317A2C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
+    <sheet name="Create Post" sheetId="1" r:id="rId1"/>
+    <sheet name="Create Story" sheetId="4" r:id="rId2"/>
+    <sheet name="Mesagging" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Test Scenarios</t>
+  </si>
+  <si>
+    <t>Check user can create a post with one picture from gallery</t>
+  </si>
+  <si>
+    <t>Check user can create a post with multiple pictures</t>
+  </si>
+  <si>
+    <t>Check user can create a post with a video</t>
+  </si>
+  <si>
+    <t>Check user can create a post with tagged people in it</t>
+  </si>
+  <si>
+    <t>Check user can select the audience the post will be showed to</t>
+  </si>
+  <si>
+    <t>Check user can create a post with different baground color</t>
+  </si>
+  <si>
+    <t>Check user can create a live stream post</t>
+  </si>
+  <si>
+    <t>Check user can create a post with one picture from the camera</t>
+  </si>
+  <si>
+    <t>Check user can create a post and add it to a certain album</t>
+  </si>
+  <si>
+    <t>Check user can edit photo before creating a post</t>
+  </si>
+  <si>
+    <t>Check user can create a text story</t>
+  </si>
+  <si>
+    <t>Check user can create a music story</t>
+  </si>
+  <si>
+    <t>Check user can create a green screen story (selfie from camera with custom background)</t>
+  </si>
+  <si>
+    <t>Check user can create a boomerang story (short clip looped back and fourth)</t>
+  </si>
+  <si>
+    <t>Check user can create a selfie story from camera</t>
+  </si>
+  <si>
+    <t>Check user can create a story with one picture from gallery</t>
+  </si>
+  <si>
+    <t>Check user can create a story with multiple pictures from gallery</t>
+  </si>
+  <si>
+    <t>Check user can edit the selected picture while creating the story</t>
+  </si>
+  <si>
+    <t>Check user can select the audience the story will be showed to</t>
+  </si>
+  <si>
+    <t>Check user can create an "add yours" story (custom made story from the camera with different filters)</t>
+  </si>
+  <si>
+    <t>Check user can send a text message</t>
+  </si>
+  <si>
+    <t>Check user can mute a conversation</t>
+  </si>
+  <si>
+    <t>Check user can archive a conversation</t>
+  </si>
+  <si>
+    <t>Check user can mark a conversation as read/unread</t>
+  </si>
+  <si>
+    <t>Check user can send stickers</t>
+  </si>
+  <si>
+    <t>Check user can send an emoji in text messages</t>
+  </si>
+  <si>
+    <t>Check user can delete a conversation</t>
+  </si>
+  <si>
+    <t>Check user can mute a conversation for a specific time</t>
+  </si>
+  <si>
+    <t>Check user can see a list of active friends to chat with</t>
+  </si>
+  <si>
+    <t>Check user can create a new group chat</t>
+  </si>
+  <si>
+    <t>Check user can send a picture in a conversation from gallery or camera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -903,11 +998,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,34 +1016,54 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
@@ -998,17 +1113,282 @@
     <row r="27" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F1C1E2-7248-4C54-8FF4-653E549A5527}">
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="110.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCE4024-EA23-43A3-A2B5-F0608CCDCC7F}">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="110.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:1" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
